--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_100/Tests_Estadisticos/dm_comparaciones_AV-MCPS_Lineal_No_Estacionario_ARIMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_100/Tests_Estadisticos/dm_comparaciones_AV-MCPS_Lineal_No_Estacionario_ARIMA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
   <si>
     <t>N_Calib_1</t>
   </si>
@@ -41,9 +41,6 @@
   </si>
   <si>
     <t>No</t>
-  </si>
-  <si>
-    <t>Sí</t>
   </si>
 </sst>
 </file>
@@ -441,10 +438,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>0.672199670411771</v>
+        <v>0.655228775655152</v>
       </c>
       <c r="D2">
-        <v>0.5015490785070478</v>
+        <v>0.5191137396196956</v>
       </c>
       <c r="E2">
         <v>3.887096082283215</v>
@@ -467,10 +464,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>1.981557131731165</v>
+        <v>1.833536124438842</v>
       </c>
       <c r="D3">
-        <v>0.04769170183443516</v>
+        <v>0.08028864824661763</v>
       </c>
       <c r="E3">
         <v>3.887096082283215</v>
@@ -479,7 +476,7 @@
         <v>3.048872301541875</v>
       </c>
       <c r="G3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H3">
         <v>60</v>
@@ -493,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>0.8112409746861514</v>
+        <v>0.8650511885208452</v>
       </c>
       <c r="D4">
-        <v>0.4173422814843155</v>
+        <v>0.3963457664931593</v>
       </c>
       <c r="E4">
         <v>3.887096082283215</v>
@@ -519,10 +516,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>0.5718081200072527</v>
+        <v>0.5942906078244089</v>
       </c>
       <c r="D5">
-        <v>0.5675285170374167</v>
+        <v>0.5583803462765995</v>
       </c>
       <c r="E5">
         <v>3.887096082283215</v>
@@ -545,10 +542,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>1.39656263117707</v>
+        <v>1.649164664024464</v>
       </c>
       <c r="D6">
-        <v>0.1627297143742878</v>
+        <v>0.1133214844882795</v>
       </c>
       <c r="E6">
         <v>3.575881343712668</v>
@@ -571,10 +568,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>0.1046924807852759</v>
+        <v>0.1176955093445544</v>
       </c>
       <c r="D7">
-        <v>0.9166323331398449</v>
+        <v>0.9073768684073185</v>
       </c>
       <c r="E7">
         <v>3.575881343712668</v>
@@ -597,10 +594,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>0.05259721364782476</v>
+        <v>0.06159985544699942</v>
       </c>
       <c r="D8">
-        <v>0.9580590939799878</v>
+        <v>0.9514377015822293</v>
       </c>
       <c r="E8">
         <v>3.575881343712668</v>
@@ -623,10 +620,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>-1.169725667854805</v>
+        <v>-1.147397209234486</v>
       </c>
       <c r="D9">
-        <v>0.2422774048940091</v>
+        <v>0.2635426811050379</v>
       </c>
       <c r="E9">
         <v>3.048872301541875</v>
@@ -649,10 +646,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>-0.7165953942444667</v>
+        <v>-0.780905884131006</v>
       </c>
       <c r="D10">
-        <v>0.4737234496194411</v>
+        <v>0.4431802023019524</v>
       </c>
       <c r="E10">
         <v>3.048872301541875</v>
@@ -675,10 +672,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>-0.01829373372503899</v>
+        <v>-0.0217580378119206</v>
       </c>
       <c r="D11">
-        <v>0.9854066999563245</v>
+        <v>0.9828371069407114</v>
       </c>
       <c r="E11">
         <v>3.530866903989074</v>
